--- a/src/assets/excel/course.xlsx
+++ b/src/assets/excel/course.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -31,19 +31,25 @@
     <t xml:space="preserve">Mã học phần thực hành (nếu có)</t>
   </si>
   <si>
-    <t xml:space="preserve">231_1TH1212_KS2A_tructiep</t>
+    <t xml:space="preserve">232_1TH1214_KS2A_02_tructiep</t>
   </si>
   <si>
-    <t xml:space="preserve">231_1TH1337_KS2A_tructiep</t>
+    <t xml:space="preserve">232_1TH1214_(BT)_KS2A_04_tructiep</t>
   </si>
   <si>
-    <t xml:space="preserve">231_1TH1337_(BT)_KS2A_tructiep</t>
+    <t xml:space="preserve">232_1CT1102_KS1A_01_tructiep</t>
   </si>
   <si>
-    <t xml:space="preserve">231_1TH1309_KS2A_tructiep</t>
+    <t xml:space="preserve">232_1TH1338_KS2A_tructiep</t>
   </si>
   <si>
-    <t xml:space="preserve">231_1TH1309_(BT)_KS2A_tructiep</t>
+    <t xml:space="preserve">232_1TH1338_(BT)_KS2A_01_tructiep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232_1TH1335_KS2A_01_tructiep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232_1TH1335_(BT)_KS2A_01_tructiep</t>
   </si>
 </sst>
 </file>
@@ -53,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,14 +84,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -155,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,10 +174,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,7 +182,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,10 +210,10 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="45.38"/>
@@ -267,7 +261,9 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -297,12 +293,10 @@
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -332,10 +326,10 @@
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
@@ -367,8 +361,12 @@
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -398,8 +396,8 @@
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -429,8 +427,8 @@
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -460,8 +458,8 @@
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -491,8 +489,8 @@
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -522,8 +520,8 @@
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -553,8 +551,8 @@
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -584,8 +582,8 @@
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -615,8 +613,8 @@
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -646,8 +644,8 @@
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -677,8 +675,8 @@
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -708,8 +706,8 @@
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -739,8 +737,8 @@
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -770,8 +768,8 @@
       <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -801,8 +799,8 @@
       <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -832,8 +830,8 @@
       <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -863,8 +861,8 @@
       <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -891,7 +889,7 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -920,7 +918,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -949,7 +947,7 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -978,7 +976,7 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1007,7 +1005,7 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1036,7 +1034,7 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1065,7 +1063,7 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1094,7 +1092,7 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1123,7 +1121,7 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1152,7 +1150,7 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1181,7 +1179,7 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1210,7 +1208,7 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1239,7 +1237,7 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1268,7 +1266,7 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1297,7 +1295,7 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1326,7 +1324,7 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1355,7 +1353,7 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1384,7 +1382,7 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1413,7 +1411,7 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1442,7 +1440,7 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1471,7 +1469,7 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1500,7 +1498,7 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1529,7 +1527,7 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1558,7 +1556,7 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1587,7 +1585,7 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1616,7 +1614,7 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1645,7 +1643,7 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1674,7 +1672,7 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1703,7 +1701,7 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1732,7 +1730,7 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1761,7 +1759,7 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1790,7 +1788,7 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1819,7 +1817,7 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1848,7 +1846,7 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1877,7 +1875,7 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1906,7 +1904,7 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1935,7 +1933,7 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1964,7 +1962,7 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1993,7 +1991,7 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2022,7 +2020,7 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2051,7 +2049,7 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2080,7 +2078,7 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2109,7 +2107,7 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2138,7 +2136,7 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2167,7 +2165,7 @@
       <c r="AA65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2196,7 +2194,7 @@
       <c r="AA66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2225,7 +2223,7 @@
       <c r="AA67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2254,7 +2252,7 @@
       <c r="AA68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2283,7 +2281,7 @@
       <c r="AA69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2312,7 +2310,7 @@
       <c r="AA70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2341,7 +2339,7 @@
       <c r="AA71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2370,7 +2368,7 @@
       <c r="AA72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2399,7 +2397,7 @@
       <c r="AA73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2428,7 +2426,7 @@
       <c r="AA74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2457,7 +2455,7 @@
       <c r="AA75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2486,7 +2484,7 @@
       <c r="AA76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2515,7 +2513,7 @@
       <c r="AA77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2544,7 +2542,7 @@
       <c r="AA78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2573,7 +2571,7 @@
       <c r="AA79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2602,7 +2600,7 @@
       <c r="AA80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2631,7 +2629,7 @@
       <c r="AA81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2660,7 +2658,7 @@
       <c r="AA82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2689,7 +2687,7 @@
       <c r="AA83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2718,7 +2716,7 @@
       <c r="AA84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2747,7 +2745,7 @@
       <c r="AA85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2776,7 +2774,7 @@
       <c r="AA86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2805,7 +2803,7 @@
       <c r="AA87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2834,7 +2832,7 @@
       <c r="AA88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2863,7 +2861,7 @@
       <c r="AA89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2892,7 +2890,7 @@
       <c r="AA90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2921,7 +2919,7 @@
       <c r="AA91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2950,7 +2948,7 @@
       <c r="AA92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2979,7 +2977,7 @@
       <c r="AA93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3008,7 +3006,7 @@
       <c r="AA94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3037,7 +3035,7 @@
       <c r="AA95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3066,7 +3064,7 @@
       <c r="AA96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3095,7 +3093,7 @@
       <c r="AA97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3124,7 +3122,7 @@
       <c r="AA98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3153,7 +3151,7 @@
       <c r="AA99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3182,7 +3180,7 @@
       <c r="AA100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3211,7 +3209,7 @@
       <c r="AA101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3240,7 +3238,7 @@
       <c r="AA102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3269,7 +3267,7 @@
       <c r="AA103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3298,7 +3296,7 @@
       <c r="AA104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3327,7 +3325,7 @@
       <c r="AA105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3356,7 +3354,7 @@
       <c r="AA106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3385,7 +3383,7 @@
       <c r="AA107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3414,7 +3412,7 @@
       <c r="AA108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3443,7 +3441,7 @@
       <c r="AA109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3472,7 +3470,7 @@
       <c r="AA110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3501,7 +3499,7 @@
       <c r="AA111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3530,7 +3528,7 @@
       <c r="AA112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3559,7 +3557,7 @@
       <c r="AA113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3588,7 +3586,7 @@
       <c r="AA114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3617,7 +3615,7 @@
       <c r="AA115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3646,7 +3644,7 @@
       <c r="AA116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3675,7 +3673,7 @@
       <c r="AA117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3704,7 +3702,7 @@
       <c r="AA118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3733,7 +3731,7 @@
       <c r="AA119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3762,7 +3760,7 @@
       <c r="AA120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3791,7 +3789,7 @@
       <c r="AA121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3820,7 +3818,7 @@
       <c r="AA122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3849,7 +3847,7 @@
       <c r="AA123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3878,7 +3876,7 @@
       <c r="AA124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3907,7 +3905,7 @@
       <c r="AA125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3936,7 +3934,7 @@
       <c r="AA126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3965,7 +3963,7 @@
       <c r="AA127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3994,7 +3992,7 @@
       <c r="AA128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -4023,7 +4021,7 @@
       <c r="AA129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -4052,7 +4050,7 @@
       <c r="AA130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -4081,7 +4079,7 @@
       <c r="AA131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -4110,7 +4108,7 @@
       <c r="AA132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -4139,7 +4137,7 @@
       <c r="AA133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -4168,7 +4166,7 @@
       <c r="AA134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -4197,7 +4195,7 @@
       <c r="AA135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -4226,7 +4224,7 @@
       <c r="AA136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -4255,7 +4253,7 @@
       <c r="AA137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -4284,7 +4282,7 @@
       <c r="AA138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -4313,7 +4311,7 @@
       <c r="AA139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -4342,7 +4340,7 @@
       <c r="AA140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -4371,7 +4369,7 @@
       <c r="AA141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -4400,7 +4398,7 @@
       <c r="AA142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -4429,7 +4427,7 @@
       <c r="AA143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -4458,7 +4456,7 @@
       <c r="AA144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -4487,7 +4485,7 @@
       <c r="AA145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -4516,7 +4514,7 @@
       <c r="AA146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -4545,7 +4543,7 @@
       <c r="AA147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -4574,7 +4572,7 @@
       <c r="AA148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -4603,7 +4601,7 @@
       <c r="AA149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -4632,7 +4630,7 @@
       <c r="AA150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -4661,7 +4659,7 @@
       <c r="AA151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -4690,7 +4688,7 @@
       <c r="AA152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -4719,7 +4717,7 @@
       <c r="AA153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4748,7 +4746,7 @@
       <c r="AA154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -4777,7 +4775,7 @@
       <c r="AA155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4806,7 +4804,7 @@
       <c r="AA156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -4835,7 +4833,7 @@
       <c r="AA157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -4864,7 +4862,7 @@
       <c r="AA158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -4893,7 +4891,7 @@
       <c r="AA159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -4922,7 +4920,7 @@
       <c r="AA160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -4951,7 +4949,7 @@
       <c r="AA161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9"/>
+      <c r="A162" s="8"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -4980,7 +4978,7 @@
       <c r="AA162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -5009,7 +5007,7 @@
       <c r="AA163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -5038,7 +5036,7 @@
       <c r="AA164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -5067,7 +5065,7 @@
       <c r="AA165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -5096,7 +5094,7 @@
       <c r="AA166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9"/>
+      <c r="A167" s="8"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -5125,7 +5123,7 @@
       <c r="AA167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -5154,7 +5152,7 @@
       <c r="AA168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -5183,7 +5181,7 @@
       <c r="AA169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -5212,7 +5210,7 @@
       <c r="AA170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -5241,7 +5239,7 @@
       <c r="AA171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -5270,7 +5268,7 @@
       <c r="AA172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -5299,7 +5297,7 @@
       <c r="AA173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9"/>
+      <c r="A174" s="8"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -5328,7 +5326,7 @@
       <c r="AA174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -5357,7 +5355,7 @@
       <c r="AA175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -5386,7 +5384,7 @@
       <c r="AA176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -5415,7 +5413,7 @@
       <c r="AA177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -5444,7 +5442,7 @@
       <c r="AA178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -5473,7 +5471,7 @@
       <c r="AA179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9"/>
+      <c r="A180" s="8"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -5502,7 +5500,7 @@
       <c r="AA180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -5531,7 +5529,7 @@
       <c r="AA181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -5560,7 +5558,7 @@
       <c r="AA182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -5589,7 +5587,7 @@
       <c r="AA183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9"/>
+      <c r="A184" s="8"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -5618,7 +5616,7 @@
       <c r="AA184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9"/>
+      <c r="A185" s="8"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -5647,7 +5645,7 @@
       <c r="AA185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9"/>
+      <c r="A186" s="8"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -5676,7 +5674,7 @@
       <c r="AA186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="9"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -5705,7 +5703,7 @@
       <c r="AA187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -5734,7 +5732,7 @@
       <c r="AA188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9"/>
+      <c r="A189" s="8"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -5763,7 +5761,7 @@
       <c r="AA189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -5792,7 +5790,7 @@
       <c r="AA190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9"/>
+      <c r="A191" s="8"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -5821,7 +5819,7 @@
       <c r="AA191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9"/>
+      <c r="A192" s="8"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -5850,7 +5848,7 @@
       <c r="AA192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9"/>
+      <c r="A193" s="8"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -5879,7 +5877,7 @@
       <c r="AA193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9"/>
+      <c r="A194" s="8"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -5908,7 +5906,7 @@
       <c r="AA194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9"/>
+      <c r="A195" s="8"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -5937,7 +5935,7 @@
       <c r="AA195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9"/>
+      <c r="A196" s="8"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -5966,7 +5964,7 @@
       <c r="AA196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9"/>
+      <c r="A197" s="8"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -5995,7 +5993,7 @@
       <c r="AA197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9"/>
+      <c r="A198" s="8"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -6024,7 +6022,7 @@
       <c r="AA198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9"/>
+      <c r="A199" s="8"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -6053,7 +6051,7 @@
       <c r="AA199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9"/>
+      <c r="A200" s="8"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -6082,7 +6080,7 @@
       <c r="AA200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="9"/>
+      <c r="A201" s="8"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -6111,7 +6109,7 @@
       <c r="AA201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="9"/>
+      <c r="A202" s="8"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -6140,7 +6138,7 @@
       <c r="AA202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="9"/>
+      <c r="A203" s="8"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -6169,7 +6167,7 @@
       <c r="AA203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9"/>
+      <c r="A204" s="8"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -6198,7 +6196,7 @@
       <c r="AA204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="9"/>
+      <c r="A205" s="8"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -6227,7 +6225,7 @@
       <c r="AA205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="9"/>
+      <c r="A206" s="8"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -6256,7 +6254,7 @@
       <c r="AA206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="9"/>
+      <c r="A207" s="8"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -6285,7 +6283,7 @@
       <c r="AA207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="9"/>
+      <c r="A208" s="8"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -6314,7 +6312,7 @@
       <c r="AA208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="9"/>
+      <c r="A209" s="8"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -6343,7 +6341,7 @@
       <c r="AA209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="9"/>
+      <c r="A210" s="8"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -6372,7 +6370,7 @@
       <c r="AA210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="9"/>
+      <c r="A211" s="8"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -6401,7 +6399,7 @@
       <c r="AA211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9"/>
+      <c r="A212" s="8"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -6430,7 +6428,7 @@
       <c r="AA212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="9"/>
+      <c r="A213" s="8"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -6459,7 +6457,7 @@
       <c r="AA213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="9"/>
+      <c r="A214" s="8"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -6488,7 +6486,7 @@
       <c r="AA214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="9"/>
+      <c r="A215" s="8"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -6517,7 +6515,7 @@
       <c r="AA215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="9"/>
+      <c r="A216" s="8"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -6546,7 +6544,7 @@
       <c r="AA216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="9"/>
+      <c r="A217" s="8"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -6575,7 +6573,7 @@
       <c r="AA217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="9"/>
+      <c r="A218" s="8"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -6604,7 +6602,7 @@
       <c r="AA218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="9"/>
+      <c r="A219" s="8"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -6633,7 +6631,7 @@
       <c r="AA219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="9"/>
+      <c r="A220" s="8"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -6662,7 +6660,7 @@
       <c r="AA220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="9"/>
+      <c r="A221" s="8"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -6691,7 +6689,7 @@
       <c r="AA221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="9"/>
+      <c r="A222" s="8"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -6720,7 +6718,7 @@
       <c r="AA222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="9"/>
+      <c r="A223" s="8"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -6749,7 +6747,7 @@
       <c r="AA223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="9"/>
+      <c r="A224" s="8"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -6778,7 +6776,7 @@
       <c r="AA224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="9"/>
+      <c r="A225" s="8"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -6807,7 +6805,7 @@
       <c r="AA225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="9"/>
+      <c r="A226" s="8"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -6836,7 +6834,7 @@
       <c r="AA226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="9"/>
+      <c r="A227" s="8"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -6865,7 +6863,7 @@
       <c r="AA227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="9"/>
+      <c r="A228" s="8"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -6894,7 +6892,7 @@
       <c r="AA228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="9"/>
+      <c r="A229" s="8"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -6923,7 +6921,7 @@
       <c r="AA229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="9"/>
+      <c r="A230" s="8"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -6952,7 +6950,7 @@
       <c r="AA230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="9"/>
+      <c r="A231" s="8"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -6981,7 +6979,7 @@
       <c r="AA231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="9"/>
+      <c r="A232" s="8"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -7010,7 +7008,7 @@
       <c r="AA232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="9"/>
+      <c r="A233" s="8"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -7039,7 +7037,7 @@
       <c r="AA233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="9"/>
+      <c r="A234" s="8"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -7068,7 +7066,7 @@
       <c r="AA234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="9"/>
+      <c r="A235" s="8"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -7097,7 +7095,7 @@
       <c r="AA235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="9"/>
+      <c r="A236" s="8"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -7126,7 +7124,7 @@
       <c r="AA236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="9"/>
+      <c r="A237" s="8"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -7155,7 +7153,7 @@
       <c r="AA237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="9"/>
+      <c r="A238" s="8"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -7184,7 +7182,7 @@
       <c r="AA238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="9"/>
+      <c r="A239" s="8"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -7213,7 +7211,7 @@
       <c r="AA239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="9"/>
+      <c r="A240" s="8"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -7242,7 +7240,7 @@
       <c r="AA240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="9"/>
+      <c r="A241" s="8"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -7271,7 +7269,7 @@
       <c r="AA241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="9"/>
+      <c r="A242" s="8"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -7300,7 +7298,7 @@
       <c r="AA242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="9"/>
+      <c r="A243" s="8"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -7329,7 +7327,7 @@
       <c r="AA243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="9"/>
+      <c r="A244" s="8"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -7358,7 +7356,7 @@
       <c r="AA244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="9"/>
+      <c r="A245" s="8"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -7387,7 +7385,7 @@
       <c r="AA245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="9"/>
+      <c r="A246" s="8"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -7416,7 +7414,7 @@
       <c r="AA246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="9"/>
+      <c r="A247" s="8"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -7445,7 +7443,7 @@
       <c r="AA247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="9"/>
+      <c r="A248" s="8"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -7474,7 +7472,7 @@
       <c r="AA248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="9"/>
+      <c r="A249" s="8"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -7503,7 +7501,7 @@
       <c r="AA249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="9"/>
+      <c r="A250" s="8"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -7532,7 +7530,7 @@
       <c r="AA250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="9"/>
+      <c r="A251" s="8"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -7561,7 +7559,7 @@
       <c r="AA251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="9"/>
+      <c r="A252" s="8"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -7590,7 +7588,7 @@
       <c r="AA252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="9"/>
+      <c r="A253" s="8"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -7619,7 +7617,7 @@
       <c r="AA253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="9"/>
+      <c r="A254" s="8"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -7648,7 +7646,7 @@
       <c r="AA254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="9"/>
+      <c r="A255" s="8"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -7677,7 +7675,7 @@
       <c r="AA255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="9"/>
+      <c r="A256" s="8"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -7706,7 +7704,7 @@
       <c r="AA256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="9"/>
+      <c r="A257" s="8"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -7735,7 +7733,7 @@
       <c r="AA257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="9"/>
+      <c r="A258" s="8"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -7764,7 +7762,7 @@
       <c r="AA258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="9"/>
+      <c r="A259" s="8"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -7793,7 +7791,7 @@
       <c r="AA259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="9"/>
+      <c r="A260" s="8"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -7822,7 +7820,7 @@
       <c r="AA260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="9"/>
+      <c r="A261" s="8"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -7851,7 +7849,7 @@
       <c r="AA261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="9"/>
+      <c r="A262" s="8"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -7880,7 +7878,7 @@
       <c r="AA262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="9"/>
+      <c r="A263" s="8"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -7909,7 +7907,7 @@
       <c r="AA263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="9"/>
+      <c r="A264" s="8"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -7938,7 +7936,7 @@
       <c r="AA264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="9"/>
+      <c r="A265" s="8"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -7967,7 +7965,7 @@
       <c r="AA265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="9"/>
+      <c r="A266" s="8"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -7996,7 +7994,7 @@
       <c r="AA266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="9"/>
+      <c r="A267" s="8"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -8025,7 +8023,7 @@
       <c r="AA267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="9"/>
+      <c r="A268" s="8"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -8054,7 +8052,7 @@
       <c r="AA268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="9"/>
+      <c r="A269" s="8"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -8083,7 +8081,7 @@
       <c r="AA269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="9"/>
+      <c r="A270" s="8"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -8112,7 +8110,7 @@
       <c r="AA270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="9"/>
+      <c r="A271" s="8"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -8141,7 +8139,7 @@
       <c r="AA271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="9"/>
+      <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -8170,7 +8168,7 @@
       <c r="AA272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="9"/>
+      <c r="A273" s="8"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -8199,7 +8197,7 @@
       <c r="AA273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9"/>
+      <c r="A274" s="8"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -8228,7 +8226,7 @@
       <c r="AA274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="9"/>
+      <c r="A275" s="8"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -8257,7 +8255,7 @@
       <c r="AA275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="9"/>
+      <c r="A276" s="8"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -8286,7 +8284,7 @@
       <c r="AA276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="9"/>
+      <c r="A277" s="8"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -8315,7 +8313,7 @@
       <c r="AA277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="9"/>
+      <c r="A278" s="8"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -8344,7 +8342,7 @@
       <c r="AA278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="9"/>
+      <c r="A279" s="8"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -8373,7 +8371,7 @@
       <c r="AA279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="9"/>
+      <c r="A280" s="8"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -8402,7 +8400,7 @@
       <c r="AA280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="9"/>
+      <c r="A281" s="8"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -8431,7 +8429,7 @@
       <c r="AA281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="9"/>
+      <c r="A282" s="8"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -8460,7 +8458,7 @@
       <c r="AA282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="9"/>
+      <c r="A283" s="8"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -8489,7 +8487,7 @@
       <c r="AA283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="9"/>
+      <c r="A284" s="8"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -8518,7 +8516,7 @@
       <c r="AA284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="9"/>
+      <c r="A285" s="8"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -8547,7 +8545,7 @@
       <c r="AA285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="9"/>
+      <c r="A286" s="8"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -8576,7 +8574,7 @@
       <c r="AA286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="9"/>
+      <c r="A287" s="8"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -8605,7 +8603,7 @@
       <c r="AA287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="9"/>
+      <c r="A288" s="8"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -8634,7 +8632,7 @@
       <c r="AA288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="9"/>
+      <c r="A289" s="8"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -8663,7 +8661,7 @@
       <c r="AA289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="9"/>
+      <c r="A290" s="8"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -8692,7 +8690,7 @@
       <c r="AA290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="9"/>
+      <c r="A291" s="8"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -8721,7 +8719,7 @@
       <c r="AA291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="9"/>
+      <c r="A292" s="8"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -8750,7 +8748,7 @@
       <c r="AA292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="9"/>
+      <c r="A293" s="8"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -8779,7 +8777,7 @@
       <c r="AA293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="9"/>
+      <c r="A294" s="8"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -8808,7 +8806,7 @@
       <c r="AA294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="9"/>
+      <c r="A295" s="8"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -8837,7 +8835,7 @@
       <c r="AA295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="9"/>
+      <c r="A296" s="8"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -8866,7 +8864,7 @@
       <c r="AA296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="9"/>
+      <c r="A297" s="8"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -8895,7 +8893,7 @@
       <c r="AA297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="9"/>
+      <c r="A298" s="8"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -8924,7 +8922,7 @@
       <c r="AA298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="9"/>
+      <c r="A299" s="8"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -8953,7 +8951,7 @@
       <c r="AA299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="9"/>
+      <c r="A300" s="8"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -8982,7 +8980,7 @@
       <c r="AA300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="9"/>
+      <c r="A301" s="8"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -9011,7 +9009,7 @@
       <c r="AA301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="9"/>
+      <c r="A302" s="8"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -9040,7 +9038,7 @@
       <c r="AA302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="9"/>
+      <c r="A303" s="8"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -9069,7 +9067,7 @@
       <c r="AA303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="9"/>
+      <c r="A304" s="8"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -9098,7 +9096,7 @@
       <c r="AA304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="9"/>
+      <c r="A305" s="8"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -9127,7 +9125,7 @@
       <c r="AA305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="9"/>
+      <c r="A306" s="8"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -9156,7 +9154,7 @@
       <c r="AA306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="9"/>
+      <c r="A307" s="8"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -9185,7 +9183,7 @@
       <c r="AA307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="9"/>
+      <c r="A308" s="8"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -9214,7 +9212,7 @@
       <c r="AA308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="9"/>
+      <c r="A309" s="8"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -9243,7 +9241,7 @@
       <c r="AA309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="9"/>
+      <c r="A310" s="8"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -9272,7 +9270,7 @@
       <c r="AA310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="9"/>
+      <c r="A311" s="8"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -9301,7 +9299,7 @@
       <c r="AA311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="9"/>
+      <c r="A312" s="8"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -9330,7 +9328,7 @@
       <c r="AA312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="9"/>
+      <c r="A313" s="8"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -9359,7 +9357,7 @@
       <c r="AA313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="9"/>
+      <c r="A314" s="8"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -9388,7 +9386,7 @@
       <c r="AA314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="9"/>
+      <c r="A315" s="8"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -9417,7 +9415,7 @@
       <c r="AA315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="9"/>
+      <c r="A316" s="8"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -9446,7 +9444,7 @@
       <c r="AA316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="9"/>
+      <c r="A317" s="8"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -9475,7 +9473,7 @@
       <c r="AA317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="9"/>
+      <c r="A318" s="8"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -9504,7 +9502,7 @@
       <c r="AA318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="9"/>
+      <c r="A319" s="8"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -9533,7 +9531,7 @@
       <c r="AA319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="9"/>
+      <c r="A320" s="8"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -9562,7 +9560,7 @@
       <c r="AA320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="9"/>
+      <c r="A321" s="8"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -9591,7 +9589,7 @@
       <c r="AA321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="9"/>
+      <c r="A322" s="8"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -9620,7 +9618,7 @@
       <c r="AA322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="9"/>
+      <c r="A323" s="8"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -9649,7 +9647,7 @@
       <c r="AA323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="9"/>
+      <c r="A324" s="8"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -9678,7 +9676,7 @@
       <c r="AA324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="9"/>
+      <c r="A325" s="8"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -9707,7 +9705,7 @@
       <c r="AA325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="9"/>
+      <c r="A326" s="8"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -9736,7 +9734,7 @@
       <c r="AA326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="9"/>
+      <c r="A327" s="8"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -9765,7 +9763,7 @@
       <c r="AA327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="9"/>
+      <c r="A328" s="8"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -9794,7 +9792,7 @@
       <c r="AA328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="9"/>
+      <c r="A329" s="8"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -9823,7 +9821,7 @@
       <c r="AA329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="9"/>
+      <c r="A330" s="8"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -9852,7 +9850,7 @@
       <c r="AA330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="9"/>
+      <c r="A331" s="8"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -9881,7 +9879,7 @@
       <c r="AA331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="9"/>
+      <c r="A332" s="8"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -9910,7 +9908,7 @@
       <c r="AA332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="9"/>
+      <c r="A333" s="8"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -9939,7 +9937,7 @@
       <c r="AA333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="9"/>
+      <c r="A334" s="8"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -9968,7 +9966,7 @@
       <c r="AA334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="9"/>
+      <c r="A335" s="8"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -9997,7 +9995,7 @@
       <c r="AA335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="9"/>
+      <c r="A336" s="8"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -10026,7 +10024,7 @@
       <c r="AA336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="9"/>
+      <c r="A337" s="8"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -10055,7 +10053,7 @@
       <c r="AA337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="9"/>
+      <c r="A338" s="8"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -10084,7 +10082,7 @@
       <c r="AA338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="9"/>
+      <c r="A339" s="8"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -10113,7 +10111,7 @@
       <c r="AA339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="9"/>
+      <c r="A340" s="8"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -10142,7 +10140,7 @@
       <c r="AA340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="9"/>
+      <c r="A341" s="8"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -10171,7 +10169,7 @@
       <c r="AA341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="9"/>
+      <c r="A342" s="8"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -10200,7 +10198,7 @@
       <c r="AA342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="9"/>
+      <c r="A343" s="8"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -10229,7 +10227,7 @@
       <c r="AA343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="9"/>
+      <c r="A344" s="8"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -10258,7 +10256,7 @@
       <c r="AA344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="9"/>
+      <c r="A345" s="8"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -10287,7 +10285,7 @@
       <c r="AA345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="9"/>
+      <c r="A346" s="8"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -10316,7 +10314,7 @@
       <c r="AA346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="9"/>
+      <c r="A347" s="8"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -10345,7 +10343,7 @@
       <c r="AA347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="9"/>
+      <c r="A348" s="8"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -10374,7 +10372,7 @@
       <c r="AA348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="9"/>
+      <c r="A349" s="8"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -10403,7 +10401,7 @@
       <c r="AA349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="9"/>
+      <c r="A350" s="8"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -10432,7 +10430,7 @@
       <c r="AA350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="9"/>
+      <c r="A351" s="8"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -10461,7 +10459,7 @@
       <c r="AA351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="9"/>
+      <c r="A352" s="8"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -10490,7 +10488,7 @@
       <c r="AA352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="9"/>
+      <c r="A353" s="8"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -10519,7 +10517,7 @@
       <c r="AA353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="9"/>
+      <c r="A354" s="8"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -10548,7 +10546,7 @@
       <c r="AA354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="9"/>
+      <c r="A355" s="8"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -10577,7 +10575,7 @@
       <c r="AA355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="9"/>
+      <c r="A356" s="8"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -10606,7 +10604,7 @@
       <c r="AA356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="9"/>
+      <c r="A357" s="8"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -10635,7 +10633,7 @@
       <c r="AA357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="9"/>
+      <c r="A358" s="8"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -10664,7 +10662,7 @@
       <c r="AA358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="9"/>
+      <c r="A359" s="8"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -10693,7 +10691,7 @@
       <c r="AA359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="9"/>
+      <c r="A360" s="8"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -10722,7 +10720,7 @@
       <c r="AA360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="9"/>
+      <c r="A361" s="8"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -10751,7 +10749,7 @@
       <c r="AA361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="9"/>
+      <c r="A362" s="8"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -10780,7 +10778,7 @@
       <c r="AA362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="9"/>
+      <c r="A363" s="8"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -10809,7 +10807,7 @@
       <c r="AA363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="9"/>
+      <c r="A364" s="8"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -10838,7 +10836,7 @@
       <c r="AA364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="9"/>
+      <c r="A365" s="8"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -10867,7 +10865,7 @@
       <c r="AA365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="9"/>
+      <c r="A366" s="8"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -10896,7 +10894,7 @@
       <c r="AA366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="9"/>
+      <c r="A367" s="8"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -10925,7 +10923,7 @@
       <c r="AA367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="9"/>
+      <c r="A368" s="8"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -10954,7 +10952,7 @@
       <c r="AA368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="9"/>
+      <c r="A369" s="8"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -10983,7 +10981,7 @@
       <c r="AA369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="9"/>
+      <c r="A370" s="8"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -11012,7 +11010,7 @@
       <c r="AA370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="9"/>
+      <c r="A371" s="8"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -11041,7 +11039,7 @@
       <c r="AA371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="9"/>
+      <c r="A372" s="8"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -11070,7 +11068,7 @@
       <c r="AA372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="9"/>
+      <c r="A373" s="8"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -11099,7 +11097,7 @@
       <c r="AA373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="9"/>
+      <c r="A374" s="8"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -11128,7 +11126,7 @@
       <c r="AA374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="9"/>
+      <c r="A375" s="8"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -11157,7 +11155,7 @@
       <c r="AA375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="9"/>
+      <c r="A376" s="8"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -11186,7 +11184,7 @@
       <c r="AA376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="9"/>
+      <c r="A377" s="8"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -11215,7 +11213,7 @@
       <c r="AA377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="9"/>
+      <c r="A378" s="8"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -11244,7 +11242,7 @@
       <c r="AA378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="9"/>
+      <c r="A379" s="8"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -11273,7 +11271,7 @@
       <c r="AA379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="9"/>
+      <c r="A380" s="8"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -11302,7 +11300,7 @@
       <c r="AA380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="9"/>
+      <c r="A381" s="8"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -11331,7 +11329,7 @@
       <c r="AA381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="9"/>
+      <c r="A382" s="8"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -11360,7 +11358,7 @@
       <c r="AA382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="9"/>
+      <c r="A383" s="8"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -11389,7 +11387,7 @@
       <c r="AA383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="9"/>
+      <c r="A384" s="8"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -11418,7 +11416,7 @@
       <c r="AA384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="9"/>
+      <c r="A385" s="8"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -11447,7 +11445,7 @@
       <c r="AA385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="9"/>
+      <c r="A386" s="8"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -11476,7 +11474,7 @@
       <c r="AA386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="9"/>
+      <c r="A387" s="8"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -11505,7 +11503,7 @@
       <c r="AA387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="9"/>
+      <c r="A388" s="8"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -11534,7 +11532,7 @@
       <c r="AA388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="9"/>
+      <c r="A389" s="8"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -11563,7 +11561,7 @@
       <c r="AA389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="9"/>
+      <c r="A390" s="8"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -11592,7 +11590,7 @@
       <c r="AA390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="9"/>
+      <c r="A391" s="8"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -11621,7 +11619,7 @@
       <c r="AA391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="9"/>
+      <c r="A392" s="8"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -11650,7 +11648,7 @@
       <c r="AA392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="9"/>
+      <c r="A393" s="8"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -11679,7 +11677,7 @@
       <c r="AA393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="9"/>
+      <c r="A394" s="8"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -11708,7 +11706,7 @@
       <c r="AA394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="9"/>
+      <c r="A395" s="8"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -11737,7 +11735,7 @@
       <c r="AA395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="9"/>
+      <c r="A396" s="8"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -11766,7 +11764,7 @@
       <c r="AA396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="9"/>
+      <c r="A397" s="8"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -11795,7 +11793,7 @@
       <c r="AA397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="9"/>
+      <c r="A398" s="8"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -11824,7 +11822,7 @@
       <c r="AA398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="9"/>
+      <c r="A399" s="8"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -11853,7 +11851,7 @@
       <c r="AA399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="9"/>
+      <c r="A400" s="8"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -11882,7 +11880,7 @@
       <c r="AA400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="9"/>
+      <c r="A401" s="8"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -11911,7 +11909,7 @@
       <c r="AA401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="9"/>
+      <c r="A402" s="8"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -11940,7 +11938,7 @@
       <c r="AA402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="9"/>
+      <c r="A403" s="8"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -11969,7 +11967,7 @@
       <c r="AA403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="9"/>
+      <c r="A404" s="8"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -11998,7 +11996,7 @@
       <c r="AA404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="9"/>
+      <c r="A405" s="8"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -12027,7 +12025,7 @@
       <c r="AA405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="9"/>
+      <c r="A406" s="8"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -12056,7 +12054,7 @@
       <c r="AA406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="9"/>
+      <c r="A407" s="8"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -12085,7 +12083,7 @@
       <c r="AA407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="9"/>
+      <c r="A408" s="8"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -12114,7 +12112,7 @@
       <c r="AA408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="9"/>
+      <c r="A409" s="8"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -12143,7 +12141,7 @@
       <c r="AA409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="9"/>
+      <c r="A410" s="8"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -12172,7 +12170,7 @@
       <c r="AA410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="9"/>
+      <c r="A411" s="8"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -12201,7 +12199,7 @@
       <c r="AA411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="9"/>
+      <c r="A412" s="8"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -12230,7 +12228,7 @@
       <c r="AA412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="9"/>
+      <c r="A413" s="8"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -12259,7 +12257,7 @@
       <c r="AA413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="9"/>
+      <c r="A414" s="8"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -12288,7 +12286,7 @@
       <c r="AA414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="9"/>
+      <c r="A415" s="8"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -12317,7 +12315,7 @@
       <c r="AA415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="9"/>
+      <c r="A416" s="8"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -12346,7 +12344,7 @@
       <c r="AA416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="9"/>
+      <c r="A417" s="8"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -12375,7 +12373,7 @@
       <c r="AA417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="9"/>
+      <c r="A418" s="8"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -12404,7 +12402,7 @@
       <c r="AA418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="9"/>
+      <c r="A419" s="8"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -12433,7 +12431,7 @@
       <c r="AA419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="9"/>
+      <c r="A420" s="8"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -12462,7 +12460,7 @@
       <c r="AA420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="9"/>
+      <c r="A421" s="8"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -12491,7 +12489,7 @@
       <c r="AA421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="9"/>
+      <c r="A422" s="8"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -12520,7 +12518,7 @@
       <c r="AA422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="9"/>
+      <c r="A423" s="8"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -12549,7 +12547,7 @@
       <c r="AA423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="9"/>
+      <c r="A424" s="8"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -12578,7 +12576,7 @@
       <c r="AA424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="9"/>
+      <c r="A425" s="8"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -12607,7 +12605,7 @@
       <c r="AA425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="9"/>
+      <c r="A426" s="8"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -12636,7 +12634,7 @@
       <c r="AA426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="9"/>
+      <c r="A427" s="8"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -12665,7 +12663,7 @@
       <c r="AA427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="9"/>
+      <c r="A428" s="8"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -12694,7 +12692,7 @@
       <c r="AA428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="9"/>
+      <c r="A429" s="8"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -12723,7 +12721,7 @@
       <c r="AA429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="9"/>
+      <c r="A430" s="8"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -12752,7 +12750,7 @@
       <c r="AA430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="9"/>
+      <c r="A431" s="8"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -12781,7 +12779,7 @@
       <c r="AA431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="9"/>
+      <c r="A432" s="8"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -12810,7 +12808,7 @@
       <c r="AA432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="9"/>
+      <c r="A433" s="8"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -12839,7 +12837,7 @@
       <c r="AA433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="9"/>
+      <c r="A434" s="8"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -12868,7 +12866,7 @@
       <c r="AA434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="9"/>
+      <c r="A435" s="8"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -12897,7 +12895,7 @@
       <c r="AA435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="9"/>
+      <c r="A436" s="8"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -12926,7 +12924,7 @@
       <c r="AA436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="9"/>
+      <c r="A437" s="8"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -12955,7 +12953,7 @@
       <c r="AA437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="9"/>
+      <c r="A438" s="8"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -12984,7 +12982,7 @@
       <c r="AA438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="9"/>
+      <c r="A439" s="8"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -13013,7 +13011,7 @@
       <c r="AA439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="9"/>
+      <c r="A440" s="8"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -13042,7 +13040,7 @@
       <c r="AA440" s="2"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="9"/>
+      <c r="A441" s="8"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -13071,7 +13069,7 @@
       <c r="AA441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="9"/>
+      <c r="A442" s="8"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -13100,7 +13098,7 @@
       <c r="AA442" s="2"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="9"/>
+      <c r="A443" s="8"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -13129,7 +13127,7 @@
       <c r="AA443" s="2"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="9"/>
+      <c r="A444" s="8"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -13158,7 +13156,7 @@
       <c r="AA444" s="2"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="9"/>
+      <c r="A445" s="8"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -13187,7 +13185,7 @@
       <c r="AA445" s="2"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="9"/>
+      <c r="A446" s="8"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -13216,7 +13214,7 @@
       <c r="AA446" s="2"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="9"/>
+      <c r="A447" s="8"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -13245,7 +13243,7 @@
       <c r="AA447" s="2"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="9"/>
+      <c r="A448" s="8"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -13274,7 +13272,7 @@
       <c r="AA448" s="2"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="9"/>
+      <c r="A449" s="8"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -13303,7 +13301,7 @@
       <c r="AA449" s="2"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="9"/>
+      <c r="A450" s="8"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -13332,7 +13330,7 @@
       <c r="AA450" s="2"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="9"/>
+      <c r="A451" s="8"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -13361,7 +13359,7 @@
       <c r="AA451" s="2"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="9"/>
+      <c r="A452" s="8"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -13390,7 +13388,7 @@
       <c r="AA452" s="2"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="9"/>
+      <c r="A453" s="8"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -13419,7 +13417,7 @@
       <c r="AA453" s="2"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="9"/>
+      <c r="A454" s="8"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -13448,7 +13446,7 @@
       <c r="AA454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="9"/>
+      <c r="A455" s="8"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -13477,7 +13475,7 @@
       <c r="AA455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="9"/>
+      <c r="A456" s="8"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -13506,7 +13504,7 @@
       <c r="AA456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="9"/>
+      <c r="A457" s="8"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -13535,7 +13533,7 @@
       <c r="AA457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="9"/>
+      <c r="A458" s="8"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -13564,7 +13562,7 @@
       <c r="AA458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="9"/>
+      <c r="A459" s="8"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -13593,7 +13591,7 @@
       <c r="AA459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="9"/>
+      <c r="A460" s="8"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -13622,7 +13620,7 @@
       <c r="AA460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="9"/>
+      <c r="A461" s="8"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -13651,7 +13649,7 @@
       <c r="AA461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="9"/>
+      <c r="A462" s="8"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -13680,7 +13678,7 @@
       <c r="AA462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="9"/>
+      <c r="A463" s="8"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -13709,7 +13707,7 @@
       <c r="AA463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="9"/>
+      <c r="A464" s="8"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -13738,7 +13736,7 @@
       <c r="AA464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="9"/>
+      <c r="A465" s="8"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -13767,7 +13765,7 @@
       <c r="AA465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="9"/>
+      <c r="A466" s="8"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -13796,7 +13794,7 @@
       <c r="AA466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="9"/>
+      <c r="A467" s="8"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -13825,7 +13823,7 @@
       <c r="AA467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="9"/>
+      <c r="A468" s="8"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -13854,7 +13852,7 @@
       <c r="AA468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="9"/>
+      <c r="A469" s="8"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -13883,7 +13881,7 @@
       <c r="AA469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="9"/>
+      <c r="A470" s="8"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -13912,7 +13910,7 @@
       <c r="AA470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="9"/>
+      <c r="A471" s="8"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -13941,7 +13939,7 @@
       <c r="AA471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="9"/>
+      <c r="A472" s="8"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -13970,7 +13968,7 @@
       <c r="AA472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="9"/>
+      <c r="A473" s="8"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -13999,7 +13997,7 @@
       <c r="AA473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="9"/>
+      <c r="A474" s="8"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -14028,7 +14026,7 @@
       <c r="AA474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="9"/>
+      <c r="A475" s="8"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -14057,7 +14055,7 @@
       <c r="AA475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="9"/>
+      <c r="A476" s="8"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -14086,7 +14084,7 @@
       <c r="AA476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="9"/>
+      <c r="A477" s="8"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -14115,7 +14113,7 @@
       <c r="AA477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="9"/>
+      <c r="A478" s="8"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -14144,7 +14142,7 @@
       <c r="AA478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="9"/>
+      <c r="A479" s="8"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -14173,7 +14171,7 @@
       <c r="AA479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="9"/>
+      <c r="A480" s="8"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -14202,7 +14200,7 @@
       <c r="AA480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="9"/>
+      <c r="A481" s="8"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -14231,7 +14229,7 @@
       <c r="AA481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="9"/>
+      <c r="A482" s="8"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -14260,7 +14258,7 @@
       <c r="AA482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="9"/>
+      <c r="A483" s="8"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -14289,7 +14287,7 @@
       <c r="AA483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="9"/>
+      <c r="A484" s="8"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -14318,7 +14316,7 @@
       <c r="AA484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="9"/>
+      <c r="A485" s="8"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -14347,7 +14345,7 @@
       <c r="AA485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="9"/>
+      <c r="A486" s="8"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -14376,7 +14374,7 @@
       <c r="AA486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="9"/>
+      <c r="A487" s="8"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -14405,7 +14403,7 @@
       <c r="AA487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="9"/>
+      <c r="A488" s="8"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -14434,7 +14432,7 @@
       <c r="AA488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="9"/>
+      <c r="A489" s="8"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -14463,7 +14461,7 @@
       <c r="AA489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="9"/>
+      <c r="A490" s="8"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -14492,7 +14490,7 @@
       <c r="AA490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="9"/>
+      <c r="A491" s="8"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -14521,7 +14519,7 @@
       <c r="AA491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="9"/>
+      <c r="A492" s="8"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -14550,7 +14548,7 @@
       <c r="AA492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="9"/>
+      <c r="A493" s="8"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -14579,7 +14577,7 @@
       <c r="AA493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="9"/>
+      <c r="A494" s="8"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -14608,7 +14606,7 @@
       <c r="AA494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="9"/>
+      <c r="A495" s="8"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -14637,7 +14635,7 @@
       <c r="AA495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="9"/>
+      <c r="A496" s="8"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -14666,7 +14664,7 @@
       <c r="AA496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="9"/>
+      <c r="A497" s="8"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -14695,7 +14693,7 @@
       <c r="AA497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="9"/>
+      <c r="A498" s="8"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -14724,7 +14722,7 @@
       <c r="AA498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="9"/>
+      <c r="A499" s="8"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -14753,7 +14751,7 @@
       <c r="AA499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="9"/>
+      <c r="A500" s="8"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -14782,7 +14780,7 @@
       <c r="AA500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="9"/>
+      <c r="A501" s="8"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -14811,7 +14809,7 @@
       <c r="AA501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="9"/>
+      <c r="A502" s="8"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -14840,7 +14838,7 @@
       <c r="AA502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="9"/>
+      <c r="A503" s="8"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -14869,7 +14867,7 @@
       <c r="AA503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="9"/>
+      <c r="A504" s="8"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -14898,7 +14896,7 @@
       <c r="AA504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="9"/>
+      <c r="A505" s="8"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -14927,7 +14925,7 @@
       <c r="AA505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="9"/>
+      <c r="A506" s="8"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -14956,7 +14954,7 @@
       <c r="AA506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="9"/>
+      <c r="A507" s="8"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -14985,7 +14983,7 @@
       <c r="AA507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="9"/>
+      <c r="A508" s="8"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -15014,7 +15012,7 @@
       <c r="AA508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="9"/>
+      <c r="A509" s="8"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -15043,7 +15041,7 @@
       <c r="AA509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="9"/>
+      <c r="A510" s="8"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -15072,7 +15070,7 @@
       <c r="AA510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="9"/>
+      <c r="A511" s="8"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -15101,7 +15099,7 @@
       <c r="AA511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="9"/>
+      <c r="A512" s="8"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -15130,7 +15128,7 @@
       <c r="AA512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="9"/>
+      <c r="A513" s="8"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -15159,7 +15157,7 @@
       <c r="AA513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="9"/>
+      <c r="A514" s="8"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -15188,7 +15186,7 @@
       <c r="AA514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="9"/>
+      <c r="A515" s="8"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -15217,7 +15215,7 @@
       <c r="AA515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="9"/>
+      <c r="A516" s="8"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -15246,7 +15244,7 @@
       <c r="AA516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="9"/>
+      <c r="A517" s="8"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -15275,7 +15273,7 @@
       <c r="AA517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="9"/>
+      <c r="A518" s="8"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -15304,7 +15302,7 @@
       <c r="AA518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="9"/>
+      <c r="A519" s="8"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -15333,7 +15331,7 @@
       <c r="AA519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="9"/>
+      <c r="A520" s="8"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -15362,7 +15360,7 @@
       <c r="AA520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="9"/>
+      <c r="A521" s="8"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -15391,7 +15389,7 @@
       <c r="AA521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="9"/>
+      <c r="A522" s="8"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -15420,7 +15418,7 @@
       <c r="AA522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="9"/>
+      <c r="A523" s="8"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -15449,7 +15447,7 @@
       <c r="AA523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="9"/>
+      <c r="A524" s="8"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -15478,7 +15476,7 @@
       <c r="AA524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="9"/>
+      <c r="A525" s="8"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -15507,7 +15505,7 @@
       <c r="AA525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="9"/>
+      <c r="A526" s="8"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -15536,7 +15534,7 @@
       <c r="AA526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="9"/>
+      <c r="A527" s="8"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -15565,7 +15563,7 @@
       <c r="AA527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="9"/>
+      <c r="A528" s="8"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -15594,7 +15592,7 @@
       <c r="AA528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="9"/>
+      <c r="A529" s="8"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -15623,7 +15621,7 @@
       <c r="AA529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="9"/>
+      <c r="A530" s="8"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -15652,7 +15650,7 @@
       <c r="AA530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="9"/>
+      <c r="A531" s="8"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -15681,7 +15679,7 @@
       <c r="AA531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="9"/>
+      <c r="A532" s="8"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -15710,7 +15708,7 @@
       <c r="AA532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="9"/>
+      <c r="A533" s="8"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -15739,7 +15737,7 @@
       <c r="AA533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="9"/>
+      <c r="A534" s="8"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -15768,7 +15766,7 @@
       <c r="AA534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="9"/>
+      <c r="A535" s="8"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -15797,7 +15795,7 @@
       <c r="AA535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="9"/>
+      <c r="A536" s="8"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -15826,7 +15824,7 @@
       <c r="AA536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="9"/>
+      <c r="A537" s="8"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -15855,7 +15853,7 @@
       <c r="AA537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="9"/>
+      <c r="A538" s="8"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -15884,7 +15882,7 @@
       <c r="AA538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="9"/>
+      <c r="A539" s="8"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -15913,7 +15911,7 @@
       <c r="AA539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="9"/>
+      <c r="A540" s="8"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -15942,7 +15940,7 @@
       <c r="AA540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="9"/>
+      <c r="A541" s="8"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -15971,7 +15969,7 @@
       <c r="AA541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="9"/>
+      <c r="A542" s="8"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -16000,7 +15998,7 @@
       <c r="AA542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="9"/>
+      <c r="A543" s="8"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -16029,7 +16027,7 @@
       <c r="AA543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="9"/>
+      <c r="A544" s="8"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -16058,7 +16056,7 @@
       <c r="AA544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="9"/>
+      <c r="A545" s="8"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -16087,7 +16085,7 @@
       <c r="AA545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="9"/>
+      <c r="A546" s="8"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -16116,7 +16114,7 @@
       <c r="AA546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="9"/>
+      <c r="A547" s="8"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -16145,7 +16143,7 @@
       <c r="AA547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="9"/>
+      <c r="A548" s="8"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -16174,7 +16172,7 @@
       <c r="AA548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="9"/>
+      <c r="A549" s="8"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -16203,7 +16201,7 @@
       <c r="AA549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="9"/>
+      <c r="A550" s="8"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -16232,7 +16230,7 @@
       <c r="AA550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="9"/>
+      <c r="A551" s="8"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -16261,7 +16259,7 @@
       <c r="AA551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="9"/>
+      <c r="A552" s="8"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -16290,7 +16288,7 @@
       <c r="AA552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="9"/>
+      <c r="A553" s="8"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -16319,7 +16317,7 @@
       <c r="AA553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="9"/>
+      <c r="A554" s="8"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -16348,7 +16346,7 @@
       <c r="AA554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="9"/>
+      <c r="A555" s="8"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -16377,7 +16375,7 @@
       <c r="AA555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="9"/>
+      <c r="A556" s="8"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -16406,7 +16404,7 @@
       <c r="AA556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="9"/>
+      <c r="A557" s="8"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -16435,7 +16433,7 @@
       <c r="AA557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="9"/>
+      <c r="A558" s="8"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -16464,7 +16462,7 @@
       <c r="AA558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="9"/>
+      <c r="A559" s="8"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -16493,7 +16491,7 @@
       <c r="AA559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="9"/>
+      <c r="A560" s="8"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -16522,7 +16520,7 @@
       <c r="AA560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="9"/>
+      <c r="A561" s="8"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -16551,7 +16549,7 @@
       <c r="AA561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="9"/>
+      <c r="A562" s="8"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -16580,7 +16578,7 @@
       <c r="AA562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="9"/>
+      <c r="A563" s="8"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -16609,7 +16607,7 @@
       <c r="AA563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="9"/>
+      <c r="A564" s="8"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -16638,7 +16636,7 @@
       <c r="AA564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="9"/>
+      <c r="A565" s="8"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -16667,7 +16665,7 @@
       <c r="AA565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="9"/>
+      <c r="A566" s="8"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -16696,7 +16694,7 @@
       <c r="AA566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="9"/>
+      <c r="A567" s="8"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -16725,7 +16723,7 @@
       <c r="AA567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="9"/>
+      <c r="A568" s="8"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -16754,7 +16752,7 @@
       <c r="AA568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="9"/>
+      <c r="A569" s="8"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -16783,7 +16781,7 @@
       <c r="AA569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="9"/>
+      <c r="A570" s="8"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -16812,7 +16810,7 @@
       <c r="AA570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="9"/>
+      <c r="A571" s="8"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -16841,7 +16839,7 @@
       <c r="AA571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="9"/>
+      <c r="A572" s="8"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -16870,7 +16868,7 @@
       <c r="AA572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="9"/>
+      <c r="A573" s="8"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -16899,7 +16897,7 @@
       <c r="AA573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="9"/>
+      <c r="A574" s="8"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -16928,7 +16926,7 @@
       <c r="AA574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="9"/>
+      <c r="A575" s="8"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -16957,7 +16955,7 @@
       <c r="AA575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="9"/>
+      <c r="A576" s="8"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -16986,7 +16984,7 @@
       <c r="AA576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="9"/>
+      <c r="A577" s="8"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -17015,7 +17013,7 @@
       <c r="AA577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="9"/>
+      <c r="A578" s="8"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -17044,7 +17042,7 @@
       <c r="AA578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="9"/>
+      <c r="A579" s="8"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -17073,7 +17071,7 @@
       <c r="AA579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="9"/>
+      <c r="A580" s="8"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -17102,7 +17100,7 @@
       <c r="AA580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="9"/>
+      <c r="A581" s="8"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -17131,7 +17129,7 @@
       <c r="AA581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="9"/>
+      <c r="A582" s="8"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -17160,7 +17158,7 @@
       <c r="AA582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="9"/>
+      <c r="A583" s="8"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -17189,7 +17187,7 @@
       <c r="AA583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="9"/>
+      <c r="A584" s="8"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -17218,7 +17216,7 @@
       <c r="AA584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="9"/>
+      <c r="A585" s="8"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -17247,7 +17245,7 @@
       <c r="AA585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="9"/>
+      <c r="A586" s="8"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -17276,7 +17274,7 @@
       <c r="AA586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="9"/>
+      <c r="A587" s="8"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -17305,7 +17303,7 @@
       <c r="AA587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="9"/>
+      <c r="A588" s="8"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -17334,7 +17332,7 @@
       <c r="AA588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="9"/>
+      <c r="A589" s="8"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -17363,7 +17361,7 @@
       <c r="AA589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="9"/>
+      <c r="A590" s="8"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -17392,7 +17390,7 @@
       <c r="AA590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="9"/>
+      <c r="A591" s="8"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -17421,7 +17419,7 @@
       <c r="AA591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="9"/>
+      <c r="A592" s="8"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -17450,7 +17448,7 @@
       <c r="AA592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="9"/>
+      <c r="A593" s="8"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -17479,7 +17477,7 @@
       <c r="AA593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="9"/>
+      <c r="A594" s="8"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -17508,7 +17506,7 @@
       <c r="AA594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="9"/>
+      <c r="A595" s="8"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -17537,7 +17535,7 @@
       <c r="AA595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="9"/>
+      <c r="A596" s="8"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -17566,7 +17564,7 @@
       <c r="AA596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="9"/>
+      <c r="A597" s="8"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -17595,7 +17593,7 @@
       <c r="AA597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="9"/>
+      <c r="A598" s="8"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -17624,7 +17622,7 @@
       <c r="AA598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="9"/>
+      <c r="A599" s="8"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -17653,7 +17651,7 @@
       <c r="AA599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="9"/>
+      <c r="A600" s="8"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -17682,7 +17680,7 @@
       <c r="AA600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="9"/>
+      <c r="A601" s="8"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -17711,7 +17709,7 @@
       <c r="AA601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="9"/>
+      <c r="A602" s="8"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -17740,7 +17738,7 @@
       <c r="AA602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="9"/>
+      <c r="A603" s="8"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -17769,7 +17767,7 @@
       <c r="AA603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="9"/>
+      <c r="A604" s="8"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -17798,7 +17796,7 @@
       <c r="AA604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="9"/>
+      <c r="A605" s="8"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -17827,7 +17825,7 @@
       <c r="AA605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="9"/>
+      <c r="A606" s="8"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -17856,7 +17854,7 @@
       <c r="AA606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="9"/>
+      <c r="A607" s="8"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -17885,7 +17883,7 @@
       <c r="AA607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="9"/>
+      <c r="A608" s="8"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -17914,7 +17912,7 @@
       <c r="AA608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="9"/>
+      <c r="A609" s="8"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -17943,7 +17941,7 @@
       <c r="AA609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="9"/>
+      <c r="A610" s="8"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -17972,7 +17970,7 @@
       <c r="AA610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="9"/>
+      <c r="A611" s="8"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -18001,7 +17999,7 @@
       <c r="AA611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="9"/>
+      <c r="A612" s="8"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -18030,7 +18028,7 @@
       <c r="AA612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="9"/>
+      <c r="A613" s="8"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -18059,7 +18057,7 @@
       <c r="AA613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="9"/>
+      <c r="A614" s="8"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -18088,7 +18086,7 @@
       <c r="AA614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="9"/>
+      <c r="A615" s="8"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -18117,7 +18115,7 @@
       <c r="AA615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="9"/>
+      <c r="A616" s="8"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -18146,7 +18144,7 @@
       <c r="AA616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="9"/>
+      <c r="A617" s="8"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -18175,7 +18173,7 @@
       <c r="AA617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="9"/>
+      <c r="A618" s="8"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -18204,7 +18202,7 @@
       <c r="AA618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="9"/>
+      <c r="A619" s="8"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -18233,7 +18231,7 @@
       <c r="AA619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="9"/>
+      <c r="A620" s="8"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -18262,7 +18260,7 @@
       <c r="AA620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="9"/>
+      <c r="A621" s="8"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -18291,7 +18289,7 @@
       <c r="AA621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="9"/>
+      <c r="A622" s="8"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -18320,7 +18318,7 @@
       <c r="AA622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="9"/>
+      <c r="A623" s="8"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -18349,7 +18347,7 @@
       <c r="AA623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="9"/>
+      <c r="A624" s="8"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -18378,7 +18376,7 @@
       <c r="AA624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="9"/>
+      <c r="A625" s="8"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -18407,7 +18405,7 @@
       <c r="AA625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="9"/>
+      <c r="A626" s="8"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -18436,7 +18434,7 @@
       <c r="AA626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="9"/>
+      <c r="A627" s="8"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -18465,7 +18463,7 @@
       <c r="AA627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="9"/>
+      <c r="A628" s="8"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -18494,7 +18492,7 @@
       <c r="AA628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="9"/>
+      <c r="A629" s="8"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -18523,7 +18521,7 @@
       <c r="AA629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="9"/>
+      <c r="A630" s="8"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -18552,7 +18550,7 @@
       <c r="AA630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="9"/>
+      <c r="A631" s="8"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -18581,7 +18579,7 @@
       <c r="AA631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="9"/>
+      <c r="A632" s="8"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -18610,7 +18608,7 @@
       <c r="AA632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="9"/>
+      <c r="A633" s="8"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -18639,7 +18637,7 @@
       <c r="AA633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="9"/>
+      <c r="A634" s="8"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -18668,7 +18666,7 @@
       <c r="AA634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="9"/>
+      <c r="A635" s="8"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -18697,7 +18695,7 @@
       <c r="AA635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="9"/>
+      <c r="A636" s="8"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -18726,7 +18724,7 @@
       <c r="AA636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="9"/>
+      <c r="A637" s="8"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -18755,7 +18753,7 @@
       <c r="AA637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="9"/>
+      <c r="A638" s="8"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -18784,7 +18782,7 @@
       <c r="AA638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="9"/>
+      <c r="A639" s="8"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -18813,7 +18811,7 @@
       <c r="AA639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="9"/>
+      <c r="A640" s="8"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -18842,7 +18840,7 @@
       <c r="AA640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="9"/>
+      <c r="A641" s="8"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -18871,7 +18869,7 @@
       <c r="AA641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="9"/>
+      <c r="A642" s="8"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -18900,7 +18898,7 @@
       <c r="AA642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="9"/>
+      <c r="A643" s="8"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -18929,7 +18927,7 @@
       <c r="AA643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="9"/>
+      <c r="A644" s="8"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -18958,7 +18956,7 @@
       <c r="AA644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="9"/>
+      <c r="A645" s="8"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -18987,7 +18985,7 @@
       <c r="AA645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="9"/>
+      <c r="A646" s="8"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -19016,7 +19014,7 @@
       <c r="AA646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="9"/>
+      <c r="A647" s="8"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -19045,7 +19043,7 @@
       <c r="AA647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="9"/>
+      <c r="A648" s="8"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -19074,7 +19072,7 @@
       <c r="AA648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="9"/>
+      <c r="A649" s="8"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -19103,7 +19101,7 @@
       <c r="AA649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="9"/>
+      <c r="A650" s="8"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -19132,7 +19130,7 @@
       <c r="AA650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="9"/>
+      <c r="A651" s="8"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -19161,7 +19159,7 @@
       <c r="AA651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="9"/>
+      <c r="A652" s="8"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -19190,7 +19188,7 @@
       <c r="AA652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="9"/>
+      <c r="A653" s="8"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -19219,7 +19217,7 @@
       <c r="AA653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="9"/>
+      <c r="A654" s="8"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -19248,7 +19246,7 @@
       <c r="AA654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="9"/>
+      <c r="A655" s="8"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -19277,7 +19275,7 @@
       <c r="AA655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="9"/>
+      <c r="A656" s="8"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -19306,7 +19304,7 @@
       <c r="AA656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="9"/>
+      <c r="A657" s="8"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -19335,7 +19333,7 @@
       <c r="AA657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="9"/>
+      <c r="A658" s="8"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -19364,7 +19362,7 @@
       <c r="AA658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="9"/>
+      <c r="A659" s="8"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -19393,7 +19391,7 @@
       <c r="AA659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="9"/>
+      <c r="A660" s="8"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -19422,7 +19420,7 @@
       <c r="AA660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="9"/>
+      <c r="A661" s="8"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -19451,7 +19449,7 @@
       <c r="AA661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="9"/>
+      <c r="A662" s="8"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -19480,7 +19478,7 @@
       <c r="AA662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="9"/>
+      <c r="A663" s="8"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -19509,7 +19507,7 @@
       <c r="AA663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="9"/>
+      <c r="A664" s="8"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -19538,7 +19536,7 @@
       <c r="AA664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="9"/>
+      <c r="A665" s="8"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -19567,7 +19565,7 @@
       <c r="AA665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="9"/>
+      <c r="A666" s="8"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -19596,7 +19594,7 @@
       <c r="AA666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="9"/>
+      <c r="A667" s="8"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -19625,7 +19623,7 @@
       <c r="AA667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="9"/>
+      <c r="A668" s="8"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -19654,7 +19652,7 @@
       <c r="AA668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="9"/>
+      <c r="A669" s="8"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -19683,7 +19681,7 @@
       <c r="AA669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="9"/>
+      <c r="A670" s="8"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -19712,7 +19710,7 @@
       <c r="AA670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="9"/>
+      <c r="A671" s="8"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -19741,7 +19739,7 @@
       <c r="AA671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="9"/>
+      <c r="A672" s="8"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -19770,7 +19768,7 @@
       <c r="AA672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="9"/>
+      <c r="A673" s="8"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -19799,7 +19797,7 @@
       <c r="AA673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="9"/>
+      <c r="A674" s="8"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -19828,7 +19826,7 @@
       <c r="AA674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="9"/>
+      <c r="A675" s="8"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -19857,7 +19855,7 @@
       <c r="AA675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="9"/>
+      <c r="A676" s="8"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -19886,7 +19884,7 @@
       <c r="AA676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="9"/>
+      <c r="A677" s="8"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -19915,7 +19913,7 @@
       <c r="AA677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="9"/>
+      <c r="A678" s="8"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -19944,7 +19942,7 @@
       <c r="AA678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="9"/>
+      <c r="A679" s="8"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -19973,7 +19971,7 @@
       <c r="AA679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="9"/>
+      <c r="A680" s="8"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -20002,7 +20000,7 @@
       <c r="AA680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="9"/>
+      <c r="A681" s="8"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -20031,7 +20029,7 @@
       <c r="AA681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="9"/>
+      <c r="A682" s="8"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -20060,7 +20058,7 @@
       <c r="AA682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="9"/>
+      <c r="A683" s="8"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -20089,7 +20087,7 @@
       <c r="AA683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="9"/>
+      <c r="A684" s="8"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -20118,7 +20116,7 @@
       <c r="AA684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="9"/>
+      <c r="A685" s="8"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -20147,7 +20145,7 @@
       <c r="AA685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="9"/>
+      <c r="A686" s="8"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -20176,7 +20174,7 @@
       <c r="AA686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="9"/>
+      <c r="A687" s="8"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -20205,7 +20203,7 @@
       <c r="AA687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="9"/>
+      <c r="A688" s="8"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -20234,7 +20232,7 @@
       <c r="AA688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="9"/>
+      <c r="A689" s="8"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -20263,7 +20261,7 @@
       <c r="AA689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="9"/>
+      <c r="A690" s="8"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -20292,7 +20290,7 @@
       <c r="AA690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="9"/>
+      <c r="A691" s="8"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -20321,7 +20319,7 @@
       <c r="AA691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="9"/>
+      <c r="A692" s="8"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -20350,7 +20348,7 @@
       <c r="AA692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="9"/>
+      <c r="A693" s="8"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -20379,7 +20377,7 @@
       <c r="AA693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="9"/>
+      <c r="A694" s="8"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -20408,7 +20406,7 @@
       <c r="AA694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="9"/>
+      <c r="A695" s="8"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -20437,7 +20435,7 @@
       <c r="AA695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="9"/>
+      <c r="A696" s="8"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -20466,7 +20464,7 @@
       <c r="AA696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="9"/>
+      <c r="A697" s="8"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -20495,7 +20493,7 @@
       <c r="AA697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="9"/>
+      <c r="A698" s="8"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -20524,7 +20522,7 @@
       <c r="AA698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="9"/>
+      <c r="A699" s="8"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -20553,7 +20551,7 @@
       <c r="AA699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="9"/>
+      <c r="A700" s="8"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -20582,7 +20580,7 @@
       <c r="AA700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="9"/>
+      <c r="A701" s="8"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -20611,7 +20609,7 @@
       <c r="AA701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="9"/>
+      <c r="A702" s="8"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -20640,7 +20638,7 @@
       <c r="AA702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="9"/>
+      <c r="A703" s="8"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -20669,7 +20667,7 @@
       <c r="AA703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="9"/>
+      <c r="A704" s="8"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -20698,7 +20696,7 @@
       <c r="AA704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="9"/>
+      <c r="A705" s="8"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -20727,7 +20725,7 @@
       <c r="AA705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="9"/>
+      <c r="A706" s="8"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -20756,7 +20754,7 @@
       <c r="AA706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="9"/>
+      <c r="A707" s="8"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -20785,7 +20783,7 @@
       <c r="AA707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="9"/>
+      <c r="A708" s="8"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -20814,7 +20812,7 @@
       <c r="AA708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="9"/>
+      <c r="A709" s="8"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -20843,7 +20841,7 @@
       <c r="AA709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="9"/>
+      <c r="A710" s="8"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -20872,7 +20870,7 @@
       <c r="AA710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="9"/>
+      <c r="A711" s="8"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -20901,7 +20899,7 @@
       <c r="AA711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="9"/>
+      <c r="A712" s="8"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -20930,7 +20928,7 @@
       <c r="AA712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="9"/>
+      <c r="A713" s="8"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -20959,7 +20957,7 @@
       <c r="AA713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="9"/>
+      <c r="A714" s="8"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -20988,7 +20986,7 @@
       <c r="AA714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="9"/>
+      <c r="A715" s="8"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -21017,7 +21015,7 @@
       <c r="AA715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="9"/>
+      <c r="A716" s="8"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -21046,7 +21044,7 @@
       <c r="AA716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="9"/>
+      <c r="A717" s="8"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -21075,7 +21073,7 @@
       <c r="AA717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="9"/>
+      <c r="A718" s="8"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -21104,7 +21102,7 @@
       <c r="AA718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="9"/>
+      <c r="A719" s="8"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -21133,7 +21131,7 @@
       <c r="AA719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="9"/>
+      <c r="A720" s="8"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -21162,7 +21160,7 @@
       <c r="AA720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="9"/>
+      <c r="A721" s="8"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -21191,7 +21189,7 @@
       <c r="AA721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="9"/>
+      <c r="A722" s="8"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -21220,7 +21218,7 @@
       <c r="AA722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="9"/>
+      <c r="A723" s="8"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -21249,7 +21247,7 @@
       <c r="AA723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="9"/>
+      <c r="A724" s="8"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -21278,7 +21276,7 @@
       <c r="AA724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="9"/>
+      <c r="A725" s="8"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -21307,7 +21305,7 @@
       <c r="AA725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="9"/>
+      <c r="A726" s="8"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -21336,7 +21334,7 @@
       <c r="AA726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="9"/>
+      <c r="A727" s="8"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -21365,7 +21363,7 @@
       <c r="AA727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="9"/>
+      <c r="A728" s="8"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -21394,7 +21392,7 @@
       <c r="AA728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="9"/>
+      <c r="A729" s="8"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -21423,7 +21421,7 @@
       <c r="AA729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="9"/>
+      <c r="A730" s="8"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -21452,7 +21450,7 @@
       <c r="AA730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="9"/>
+      <c r="A731" s="8"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -21481,7 +21479,7 @@
       <c r="AA731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="9"/>
+      <c r="A732" s="8"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -21510,7 +21508,7 @@
       <c r="AA732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="9"/>
+      <c r="A733" s="8"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -21539,7 +21537,7 @@
       <c r="AA733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="9"/>
+      <c r="A734" s="8"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -21568,7 +21566,7 @@
       <c r="AA734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="9"/>
+      <c r="A735" s="8"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -21597,7 +21595,7 @@
       <c r="AA735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="9"/>
+      <c r="A736" s="8"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -21626,7 +21624,7 @@
       <c r="AA736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="9"/>
+      <c r="A737" s="8"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -21655,7 +21653,7 @@
       <c r="AA737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="9"/>
+      <c r="A738" s="8"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -21684,7 +21682,7 @@
       <c r="AA738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="9"/>
+      <c r="A739" s="8"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -21713,7 +21711,7 @@
       <c r="AA739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="9"/>
+      <c r="A740" s="8"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -21742,7 +21740,7 @@
       <c r="AA740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="9"/>
+      <c r="A741" s="8"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -21771,7 +21769,7 @@
       <c r="AA741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="9"/>
+      <c r="A742" s="8"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -21800,7 +21798,7 @@
       <c r="AA742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="9"/>
+      <c r="A743" s="8"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -21829,7 +21827,7 @@
       <c r="AA743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="9"/>
+      <c r="A744" s="8"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -21858,7 +21856,7 @@
       <c r="AA744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="9"/>
+      <c r="A745" s="8"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -21887,7 +21885,7 @@
       <c r="AA745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="9"/>
+      <c r="A746" s="8"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -21916,7 +21914,7 @@
       <c r="AA746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="9"/>
+      <c r="A747" s="8"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -21945,7 +21943,7 @@
       <c r="AA747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="9"/>
+      <c r="A748" s="8"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -21974,7 +21972,7 @@
       <c r="AA748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="9"/>
+      <c r="A749" s="8"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -22003,7 +22001,7 @@
       <c r="AA749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="9"/>
+      <c r="A750" s="8"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -22032,7 +22030,7 @@
       <c r="AA750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="9"/>
+      <c r="A751" s="8"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -22061,7 +22059,7 @@
       <c r="AA751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="9"/>
+      <c r="A752" s="8"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -22090,7 +22088,7 @@
       <c r="AA752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="9"/>
+      <c r="A753" s="8"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -22119,7 +22117,7 @@
       <c r="AA753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="9"/>
+      <c r="A754" s="8"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -22148,7 +22146,7 @@
       <c r="AA754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="9"/>
+      <c r="A755" s="8"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -22177,7 +22175,7 @@
       <c r="AA755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="9"/>
+      <c r="A756" s="8"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -22206,7 +22204,7 @@
       <c r="AA756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="9"/>
+      <c r="A757" s="8"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -22235,7 +22233,7 @@
       <c r="AA757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="9"/>
+      <c r="A758" s="8"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -22264,7 +22262,7 @@
       <c r="AA758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="9"/>
+      <c r="A759" s="8"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -22293,7 +22291,7 @@
       <c r="AA759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="9"/>
+      <c r="A760" s="8"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -22322,7 +22320,7 @@
       <c r="AA760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="9"/>
+      <c r="A761" s="8"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -22351,7 +22349,7 @@
       <c r="AA761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="9"/>
+      <c r="A762" s="8"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -22380,7 +22378,7 @@
       <c r="AA762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="9"/>
+      <c r="A763" s="8"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -22409,7 +22407,7 @@
       <c r="AA763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="9"/>
+      <c r="A764" s="8"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -22438,7 +22436,7 @@
       <c r="AA764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="9"/>
+      <c r="A765" s="8"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -22467,7 +22465,7 @@
       <c r="AA765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="9"/>
+      <c r="A766" s="8"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -22496,7 +22494,7 @@
       <c r="AA766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="9"/>
+      <c r="A767" s="8"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -22525,7 +22523,7 @@
       <c r="AA767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="9"/>
+      <c r="A768" s="8"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -22554,7 +22552,7 @@
       <c r="AA768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="9"/>
+      <c r="A769" s="8"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -22583,7 +22581,7 @@
       <c r="AA769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="9"/>
+      <c r="A770" s="8"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -22612,7 +22610,7 @@
       <c r="AA770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="9"/>
+      <c r="A771" s="8"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -22641,7 +22639,7 @@
       <c r="AA771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="9"/>
+      <c r="A772" s="8"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -22670,7 +22668,7 @@
       <c r="AA772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="9"/>
+      <c r="A773" s="8"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -22699,7 +22697,7 @@
       <c r="AA773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="9"/>
+      <c r="A774" s="8"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -22728,7 +22726,7 @@
       <c r="AA774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="9"/>
+      <c r="A775" s="8"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -22757,7 +22755,7 @@
       <c r="AA775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="9"/>
+      <c r="A776" s="8"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -22786,7 +22784,7 @@
       <c r="AA776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="9"/>
+      <c r="A777" s="8"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -22815,7 +22813,7 @@
       <c r="AA777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="9"/>
+      <c r="A778" s="8"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -22844,7 +22842,7 @@
       <c r="AA778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="9"/>
+      <c r="A779" s="8"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -22873,7 +22871,7 @@
       <c r="AA779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="9"/>
+      <c r="A780" s="8"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -22902,7 +22900,7 @@
       <c r="AA780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="9"/>
+      <c r="A781" s="8"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -22931,7 +22929,7 @@
       <c r="AA781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="9"/>
+      <c r="A782" s="8"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -22960,7 +22958,7 @@
       <c r="AA782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="9"/>
+      <c r="A783" s="8"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -22989,7 +22987,7 @@
       <c r="AA783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="9"/>
+      <c r="A784" s="8"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -23018,7 +23016,7 @@
       <c r="AA784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="9"/>
+      <c r="A785" s="8"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -23047,7 +23045,7 @@
       <c r="AA785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="9"/>
+      <c r="A786" s="8"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -23076,7 +23074,7 @@
       <c r="AA786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="9"/>
+      <c r="A787" s="8"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -23105,7 +23103,7 @@
       <c r="AA787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="9"/>
+      <c r="A788" s="8"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -23134,7 +23132,7 @@
       <c r="AA788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="9"/>
+      <c r="A789" s="8"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -23163,7 +23161,7 @@
       <c r="AA789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="9"/>
+      <c r="A790" s="8"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -23192,7 +23190,7 @@
       <c r="AA790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="9"/>
+      <c r="A791" s="8"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -23221,7 +23219,7 @@
       <c r="AA791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="9"/>
+      <c r="A792" s="8"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -23250,7 +23248,7 @@
       <c r="AA792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="9"/>
+      <c r="A793" s="8"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -23279,7 +23277,7 @@
       <c r="AA793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="9"/>
+      <c r="A794" s="8"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -23308,7 +23306,7 @@
       <c r="AA794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="9"/>
+      <c r="A795" s="8"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -23337,7 +23335,7 @@
       <c r="AA795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="9"/>
+      <c r="A796" s="8"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -23366,7 +23364,7 @@
       <c r="AA796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="9"/>
+      <c r="A797" s="8"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -23395,7 +23393,7 @@
       <c r="AA797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="9"/>
+      <c r="A798" s="8"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -23424,7 +23422,7 @@
       <c r="AA798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="9"/>
+      <c r="A799" s="8"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -23453,7 +23451,7 @@
       <c r="AA799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="9"/>
+      <c r="A800" s="8"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -23482,7 +23480,7 @@
       <c r="AA800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="9"/>
+      <c r="A801" s="8"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -23511,7 +23509,7 @@
       <c r="AA801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="9"/>
+      <c r="A802" s="8"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -23540,7 +23538,7 @@
       <c r="AA802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="9"/>
+      <c r="A803" s="8"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -23569,7 +23567,7 @@
       <c r="AA803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="9"/>
+      <c r="A804" s="8"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -23598,7 +23596,7 @@
       <c r="AA804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="9"/>
+      <c r="A805" s="8"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -23627,7 +23625,7 @@
       <c r="AA805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="9"/>
+      <c r="A806" s="8"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -23656,7 +23654,7 @@
       <c r="AA806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="9"/>
+      <c r="A807" s="8"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -23685,7 +23683,7 @@
       <c r="AA807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="9"/>
+      <c r="A808" s="8"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -23714,7 +23712,7 @@
       <c r="AA808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="9"/>
+      <c r="A809" s="8"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -23743,7 +23741,7 @@
       <c r="AA809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="9"/>
+      <c r="A810" s="8"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -23772,7 +23770,7 @@
       <c r="AA810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="9"/>
+      <c r="A811" s="8"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -23801,7 +23799,7 @@
       <c r="AA811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="9"/>
+      <c r="A812" s="8"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -23830,7 +23828,7 @@
       <c r="AA812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="9"/>
+      <c r="A813" s="8"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -23859,7 +23857,7 @@
       <c r="AA813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="9"/>
+      <c r="A814" s="8"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -23888,7 +23886,7 @@
       <c r="AA814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="9"/>
+      <c r="A815" s="8"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -23917,7 +23915,7 @@
       <c r="AA815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="9"/>
+      <c r="A816" s="8"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -23946,7 +23944,7 @@
       <c r="AA816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="9"/>
+      <c r="A817" s="8"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -23975,7 +23973,7 @@
       <c r="AA817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="9"/>
+      <c r="A818" s="8"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -24004,7 +24002,7 @@
       <c r="AA818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="9"/>
+      <c r="A819" s="8"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -24033,7 +24031,7 @@
       <c r="AA819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="9"/>
+      <c r="A820" s="8"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -24062,7 +24060,7 @@
       <c r="AA820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="9"/>
+      <c r="A821" s="8"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -24091,7 +24089,7 @@
       <c r="AA821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="9"/>
+      <c r="A822" s="8"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -24120,7 +24118,7 @@
       <c r="AA822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="9"/>
+      <c r="A823" s="8"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -24149,7 +24147,7 @@
       <c r="AA823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="9"/>
+      <c r="A824" s="8"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -24178,7 +24176,7 @@
       <c r="AA824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="9"/>
+      <c r="A825" s="8"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -24207,7 +24205,7 @@
       <c r="AA825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="9"/>
+      <c r="A826" s="8"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -24236,7 +24234,7 @@
       <c r="AA826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="9"/>
+      <c r="A827" s="8"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -24265,7 +24263,7 @@
       <c r="AA827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="9"/>
+      <c r="A828" s="8"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -24294,7 +24292,7 @@
       <c r="AA828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="9"/>
+      <c r="A829" s="8"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -24323,7 +24321,7 @@
       <c r="AA829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="9"/>
+      <c r="A830" s="8"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -24352,7 +24350,7 @@
       <c r="AA830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="9"/>
+      <c r="A831" s="8"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -24381,7 +24379,7 @@
       <c r="AA831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="9"/>
+      <c r="A832" s="8"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -24410,7 +24408,7 @@
       <c r="AA832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="9"/>
+      <c r="A833" s="8"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -24439,7 +24437,7 @@
       <c r="AA833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="9"/>
+      <c r="A834" s="8"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -24468,7 +24466,7 @@
       <c r="AA834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="9"/>
+      <c r="A835" s="8"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -24497,7 +24495,7 @@
       <c r="AA835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="9"/>
+      <c r="A836" s="8"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -24526,7 +24524,7 @@
       <c r="AA836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="9"/>
+      <c r="A837" s="8"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -24555,7 +24553,7 @@
       <c r="AA837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="9"/>
+      <c r="A838" s="8"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -24584,7 +24582,7 @@
       <c r="AA838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="9"/>
+      <c r="A839" s="8"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -24613,7 +24611,7 @@
       <c r="AA839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="9"/>
+      <c r="A840" s="8"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -24642,7 +24640,7 @@
       <c r="AA840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="9"/>
+      <c r="A841" s="8"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -24671,7 +24669,7 @@
       <c r="AA841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="9"/>
+      <c r="A842" s="8"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -24700,7 +24698,7 @@
       <c r="AA842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="9"/>
+      <c r="A843" s="8"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -24729,7 +24727,7 @@
       <c r="AA843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="9"/>
+      <c r="A844" s="8"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -24758,7 +24756,7 @@
       <c r="AA844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="9"/>
+      <c r="A845" s="8"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -24787,7 +24785,7 @@
       <c r="AA845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="9"/>
+      <c r="A846" s="8"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -24816,7 +24814,7 @@
       <c r="AA846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="9"/>
+      <c r="A847" s="8"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -24845,7 +24843,7 @@
       <c r="AA847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="9"/>
+      <c r="A848" s="8"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -24874,7 +24872,7 @@
       <c r="AA848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="9"/>
+      <c r="A849" s="8"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -24903,7 +24901,7 @@
       <c r="AA849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="9"/>
+      <c r="A850" s="8"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -24932,7 +24930,7 @@
       <c r="AA850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="9"/>
+      <c r="A851" s="8"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -24961,7 +24959,7 @@
       <c r="AA851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="9"/>
+      <c r="A852" s="8"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -24990,7 +24988,7 @@
       <c r="AA852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="9"/>
+      <c r="A853" s="8"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -25019,7 +25017,7 @@
       <c r="AA853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="9"/>
+      <c r="A854" s="8"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -25048,7 +25046,7 @@
       <c r="AA854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="9"/>
+      <c r="A855" s="8"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -25077,7 +25075,7 @@
       <c r="AA855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="9"/>
+      <c r="A856" s="8"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -25106,7 +25104,7 @@
       <c r="AA856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="9"/>
+      <c r="A857" s="8"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -25135,7 +25133,7 @@
       <c r="AA857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="9"/>
+      <c r="A858" s="8"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -25164,7 +25162,7 @@
       <c r="AA858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="9"/>
+      <c r="A859" s="8"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -25193,7 +25191,7 @@
       <c r="AA859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="9"/>
+      <c r="A860" s="8"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -25222,7 +25220,7 @@
       <c r="AA860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="9"/>
+      <c r="A861" s="8"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -25251,7 +25249,7 @@
       <c r="AA861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="9"/>
+      <c r="A862" s="8"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -25280,7 +25278,7 @@
       <c r="AA862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="9"/>
+      <c r="A863" s="8"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -25309,7 +25307,7 @@
       <c r="AA863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="9"/>
+      <c r="A864" s="8"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -25338,7 +25336,7 @@
       <c r="AA864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="9"/>
+      <c r="A865" s="8"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -25367,7 +25365,7 @@
       <c r="AA865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="9"/>
+      <c r="A866" s="8"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -25396,7 +25394,7 @@
       <c r="AA866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="9"/>
+      <c r="A867" s="8"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -25425,7 +25423,7 @@
       <c r="AA867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="9"/>
+      <c r="A868" s="8"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -25454,7 +25452,7 @@
       <c r="AA868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="9"/>
+      <c r="A869" s="8"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -25483,7 +25481,7 @@
       <c r="AA869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="9"/>
+      <c r="A870" s="8"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -25512,7 +25510,7 @@
       <c r="AA870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="9"/>
+      <c r="A871" s="8"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -25541,7 +25539,7 @@
       <c r="AA871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="9"/>
+      <c r="A872" s="8"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -25570,7 +25568,7 @@
       <c r="AA872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="9"/>
+      <c r="A873" s="8"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -25599,7 +25597,7 @@
       <c r="AA873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="9"/>
+      <c r="A874" s="8"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -25628,7 +25626,7 @@
       <c r="AA874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="9"/>
+      <c r="A875" s="8"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -25657,7 +25655,7 @@
       <c r="AA875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="9"/>
+      <c r="A876" s="8"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -25686,7 +25684,7 @@
       <c r="AA876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="9"/>
+      <c r="A877" s="8"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -25715,7 +25713,7 @@
       <c r="AA877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="9"/>
+      <c r="A878" s="8"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -25744,7 +25742,7 @@
       <c r="AA878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="9"/>
+      <c r="A879" s="8"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -25773,7 +25771,7 @@
       <c r="AA879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="9"/>
+      <c r="A880" s="8"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -25802,7 +25800,7 @@
       <c r="AA880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="9"/>
+      <c r="A881" s="8"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -25831,7 +25829,7 @@
       <c r="AA881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="9"/>
+      <c r="A882" s="8"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -25860,7 +25858,7 @@
       <c r="AA882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="9"/>
+      <c r="A883" s="8"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -25889,7 +25887,7 @@
       <c r="AA883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="9"/>
+      <c r="A884" s="8"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -25918,7 +25916,7 @@
       <c r="AA884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="9"/>
+      <c r="A885" s="8"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -25947,7 +25945,7 @@
       <c r="AA885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="9"/>
+      <c r="A886" s="8"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -25976,7 +25974,7 @@
       <c r="AA886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="9"/>
+      <c r="A887" s="8"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -26005,7 +26003,7 @@
       <c r="AA887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="9"/>
+      <c r="A888" s="8"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -26034,7 +26032,7 @@
       <c r="AA888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="9"/>
+      <c r="A889" s="8"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -26063,7 +26061,7 @@
       <c r="AA889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="9"/>
+      <c r="A890" s="8"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -26092,7 +26090,7 @@
       <c r="AA890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="9"/>
+      <c r="A891" s="8"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -26121,7 +26119,7 @@
       <c r="AA891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="9"/>
+      <c r="A892" s="8"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -26150,7 +26148,7 @@
       <c r="AA892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="9"/>
+      <c r="A893" s="8"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -26179,7 +26177,7 @@
       <c r="AA893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="9"/>
+      <c r="A894" s="8"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -26208,7 +26206,7 @@
       <c r="AA894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="9"/>
+      <c r="A895" s="8"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -26237,7 +26235,7 @@
       <c r="AA895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="9"/>
+      <c r="A896" s="8"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -26266,7 +26264,7 @@
       <c r="AA896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="9"/>
+      <c r="A897" s="8"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -26295,7 +26293,7 @@
       <c r="AA897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="9"/>
+      <c r="A898" s="8"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -26324,7 +26322,7 @@
       <c r="AA898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="9"/>
+      <c r="A899" s="8"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -26353,7 +26351,7 @@
       <c r="AA899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="9"/>
+      <c r="A900" s="8"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -26382,7 +26380,7 @@
       <c r="AA900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="9"/>
+      <c r="A901" s="8"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -26411,7 +26409,7 @@
       <c r="AA901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="9"/>
+      <c r="A902" s="8"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -26440,7 +26438,7 @@
       <c r="AA902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="9"/>
+      <c r="A903" s="8"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -26469,7 +26467,7 @@
       <c r="AA903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="9"/>
+      <c r="A904" s="8"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -26498,7 +26496,7 @@
       <c r="AA904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="9"/>
+      <c r="A905" s="8"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -26527,7 +26525,7 @@
       <c r="AA905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="9"/>
+      <c r="A906" s="8"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -26556,7 +26554,7 @@
       <c r="AA906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="9"/>
+      <c r="A907" s="8"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -26585,7 +26583,7 @@
       <c r="AA907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="9"/>
+      <c r="A908" s="8"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -26614,7 +26612,7 @@
       <c r="AA908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="9"/>
+      <c r="A909" s="8"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -26643,7 +26641,7 @@
       <c r="AA909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="9"/>
+      <c r="A910" s="8"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -26672,7 +26670,7 @@
       <c r="AA910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="9"/>
+      <c r="A911" s="8"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -26701,7 +26699,7 @@
       <c r="AA911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="9"/>
+      <c r="A912" s="8"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -26730,7 +26728,7 @@
       <c r="AA912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="9"/>
+      <c r="A913" s="8"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -26759,7 +26757,7 @@
       <c r="AA913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="9"/>
+      <c r="A914" s="8"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -26788,7 +26786,7 @@
       <c r="AA914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="9"/>
+      <c r="A915" s="8"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -26817,7 +26815,7 @@
       <c r="AA915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="9"/>
+      <c r="A916" s="8"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -26846,7 +26844,7 @@
       <c r="AA916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="9"/>
+      <c r="A917" s="8"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -26875,7 +26873,7 @@
       <c r="AA917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="9"/>
+      <c r="A918" s="8"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -26904,7 +26902,7 @@
       <c r="AA918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="9"/>
+      <c r="A919" s="8"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
